--- a/ChuangYeRen_Project/相关文件/创业人开发计划.xlsx
+++ b/ChuangYeRen_Project/相关文件/创业人开发计划.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="创业人开发计划" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>标准收货单据接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,56 +219,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">生产订单导入，审核，开工接口
-生产订单的反开工，弃审，删除接口
-生产领料导入，审核接口
-生产退料导入，审核接口
-成品入库导入，审核接口
-成品出库导入，审核接口
-杂发导入，审核接口
-杂收导入，审核接口
-标准收货导入，审核接口
-标准出货导入，审核接口
-标准收货单据弃审，删除接口
-销售出货单据弃审，删除接口
-调拨单据导入，审核接口
-采购退货导入，审核接口
-人工费用数据导入，审核接口
-形态转换导入，审核接口
-生产订单导入，审核，开工接口
-生产订单的反开工，弃审，删除接口
-生产领料导入，审核接口
-生产退料导入，审核接口
-成品入库导入，审核接口
-成品出库导入，审核接口
-杂发导入，审核接口
-杂收导入，审核接口
-标准收货导入，审核接口
-标准出货导入，审核接口
-标准收货单据弃审，删除接口
-销售出货单据弃审，删除接口
-调拨单据导入，审核接口
-采购退货导入，审核接口
-人工费用数据导入，审核接口
-形态转换导入，审核接口
-生产订单导入，审核，开工接口
-生产订单的反开工，弃审，删除接口
-生产领料导入，审核接口
-生产退料导入，审核接口
-成品入库导入，审核接口
-成品出库导入，审核接口
-杂发导入，审核接口
-杂收导入，审核接口
-标准收货导入，审核接口
-标准出货导入，审核接口
-标准收货单据弃审，删除接口
-销售出货单据弃审，删除接口
-调拨单据导入，审核接口
-采购退货导入，审核接口
-人工费用数据导入，审核接口
-形态转换导入，审核接口
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>ProductionOrderImportProcessBP</t>
+  </si>
+  <si>
+    <t>ProductionOrderDeleteProcessBP</t>
+  </si>
+  <si>
+    <t>RcvProductionIssueProcessBP</t>
+  </si>
+  <si>
+    <t>退料不能审核，与晓强沟通用杂收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscTranInProcessBP</t>
+  </si>
+  <si>
+    <t>MiscTranOutProcessBP</t>
+  </si>
+  <si>
+    <t>ProductionInWarehouseBP</t>
+  </si>
+  <si>
+    <t>ProductionOutWarehouseBP</t>
+  </si>
+  <si>
+    <t>ReceivementImportBP，ReceivementApproveBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteShipmentProcessBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteReceivementProcessBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipmentImportBP，ShipmentApproveBP（单据接口特殊要调用两个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferApplyImportBP</t>
+  </si>
+  <si>
+    <t>PMRtnImportBP</t>
+  </si>
+  <si>
+    <t>ExpenseCostImportBP</t>
+  </si>
+  <si>
+    <t>TransferFormImport</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -300,14 +304,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -315,10 +319,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -431,61 +435,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,19 +813,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="8" max="8" width="28.75" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.625" customWidth="1"/>
+    <col min="9" max="9" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -855,301 +854,359 @@
         <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="14"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
     <mergeCell ref="B21:E23"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="F2:F3"/>
@@ -1162,105 +1219,8 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="BudgetSheetCodeName" r:id="rId1"/>
-  </customProperties>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A20"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -1274,7 +1234,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB118040-B5A0-4329-B700-FDD2BD85FB4C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBA5E32-EE81-4C53-BDAC-6A0FE2847D53}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>